--- a/data/M4_Thailand_Inflation_questions.xlsx
+++ b/data/M4_Thailand_Inflation_questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="1220" windowWidth="25520" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="6" r:id="rId1"/>
@@ -12,7 +12,12 @@
     <sheet name="Forecast" sheetId="2" r:id="rId3"/>
     <sheet name="Forecast AR1" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -787,12 +792,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +862,29 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -889,7 +918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -911,7 +940,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,10 +948,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,7 +1010,7 @@
       </left>
       <right/>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -995,12 +1024,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1126,8 +1235,96 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="73">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1420,21 +1617,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" style="58" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="58"/>
-    <col min="13" max="16384" width="9.140625" style="17"/>
+    <col min="2" max="12" width="8.83203125" style="58"/>
+    <col min="13" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="59" t="s">
         <v>189</v>
       </c>
@@ -1614,31 +1811,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="14" width="12.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="14" width="12.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1688,7 +1890,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +2040,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +2088,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2208,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2236,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+    <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
@@ -2134,7 +2336,7 @@
         <v>0.41194758261416703</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1">
+    <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
@@ -3643,7 +3845,7 @@
       </c>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1">
+    <row r="134" spans="1:4" ht="15" thickBot="1">
       <c r="A134" s="11" t="s">
         <v>131</v>
       </c>
@@ -3656,7 +3858,7 @@
       </c>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" spans="1:4" ht="15.75" thickTop="1">
+    <row r="135" spans="1:4" ht="15" thickTop="1">
       <c r="A135" s="13" t="s">
         <v>132</v>
       </c>
@@ -3810,37 +4012,42 @@
         <v>0.62</v>
       </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="10">
+      <c r="D146" s="72">
         <f t="shared" si="3"/>
         <v>2.352692069197134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="15" width="10.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="15" width="10.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3859,7 +4066,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:23" ht="15" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>238</v>
       </c>
@@ -3892,7 +4099,7 @@
       <c r="V2" s="70"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:23" ht="16" thickTop="1" thickBot="1">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -4006,7 +4213,7 @@
       <c r="E5" s="31">
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="71">
         <v>0.27</v>
       </c>
       <c r="G5" s="18"/>
@@ -4045,6 +4252,7 @@
         <v>2.7555999999999998</v>
       </c>
       <c r="T5" s="33">
+        <f>(E5/B4)^2</f>
         <v>2.9394687182464712E-3</v>
       </c>
       <c r="U5" s="34">
@@ -4113,6 +4321,7 @@
         <v>3.7248999999999999</v>
       </c>
       <c r="T6" s="33">
+        <f>(E6/B5)^2</f>
         <v>2.4161722462348026E-4</v>
       </c>
       <c r="U6" s="34">
@@ -4735,7 +4944,7 @@
       </c>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1">
+    <row r="16" spans="1:23" ht="15" thickBot="1">
       <c r="A16" s="36" t="str">
         <f>'Data '!A146</f>
         <v>2014 - Dec</v>
@@ -4803,7 +5012,7 @@
       </c>
       <c r="W16" s="18"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickTop="1">
+    <row r="17" spans="1:23" ht="15" thickTop="1">
       <c r="A17" s="15" t="s">
         <v>227</v>
       </c>
@@ -4923,7 +5132,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+    <row r="19" spans="1:23" ht="15" thickBot="1">
       <c r="A19" s="43" t="s">
         <v>228</v>
       </c>
@@ -4956,7 +5165,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:23" ht="16" thickTop="1" thickBot="1">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -4980,7 +5189,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:23" ht="16" thickTop="1" thickBot="1">
       <c r="A21" s="28" t="s">
         <v>176</v>
       </c>
@@ -5129,7 +5338,10 @@
       <c r="D25" s="42">
         <v>0.27851790287560013</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="77">
+        <f>SQRT(C23-C22^2)</f>
+        <v>0.32861662905107053</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="27" t="s">
@@ -5164,7 +5376,7 @@
       <c r="D26" s="53">
         <v>0.2466666666666667</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="48" t="s">
@@ -5223,7 +5435,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15" thickBot="1">
       <c r="A28" s="54" t="s">
         <v>218</v>
       </c>
@@ -5258,7 +5470,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickTop="1">
+    <row r="29" spans="1:23" ht="15" thickTop="1">
       <c r="A29" s="54" t="s">
         <v>174</v>
       </c>
@@ -5379,7 +5591,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+    <row r="33" spans="1:23" ht="15" thickBot="1">
       <c r="A33" s="55"/>
       <c r="B33" s="50" t="s">
         <v>222</v>
@@ -5410,7 +5622,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickTop="1">
+    <row r="34" spans="1:23" ht="15" thickTop="1">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="20"/>
@@ -5667,30 +5879,35 @@
     <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="15" width="10.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="15" width="10.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -5709,7 +5926,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:23" ht="15" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>237</v>
       </c>
@@ -5746,7 +5963,7 @@
       <c r="V2" s="70"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:23" ht="16" thickTop="1" thickBot="1">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -5858,24 +6075,72 @@
         <f>$B$4</f>
         <v>1.66</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="E5" s="73">
+        <f>C5-$B5</f>
+        <v>-0.18905394913882212</v>
+      </c>
+      <c r="F5" s="73">
+        <f>D5-$B5</f>
+        <v>-0.27</v>
+      </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="H5" s="32">
+        <f>E5^2</f>
+        <v>3.5741395684984342E-2</v>
+      </c>
+      <c r="I5" s="32">
+        <f>F5^2</f>
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="J5" s="32">
+        <f>ABS(E5)</f>
+        <v>0.18905394913882212</v>
+      </c>
+      <c r="K5" s="32">
+        <f>ABS(F5)</f>
+        <v>0.27</v>
+      </c>
+      <c r="L5" s="32">
+        <f>E5/B5*100</f>
+        <v>-9.7955414061565875</v>
+      </c>
+      <c r="M5" s="32">
+        <f>F5/B5*100</f>
+        <v>-13.989637305699484</v>
+      </c>
+      <c r="N5" s="32">
+        <f>ABS(L5)</f>
+        <v>9.7955414061565875</v>
+      </c>
+      <c r="O5" s="32">
+        <f>ABS(M5)</f>
+        <v>13.989637305699484</v>
+      </c>
       <c r="P5" s="18"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
+      <c r="Q5" s="32">
+        <f>B5^2</f>
+        <v>3.7248999999999999</v>
+      </c>
+      <c r="R5" s="32">
+        <f>C5^2</f>
+        <v>3.0308931520091309</v>
+      </c>
+      <c r="S5" s="32">
+        <f>D5^2</f>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T5" s="33">
+        <f>(E5/$B$4)^2</f>
+        <v>1.2970458587960641E-2</v>
+      </c>
+      <c r="U5" s="34">
+        <f>(F5/$B$4)^2</f>
+        <v>2.6455218464218326E-2</v>
+      </c>
+      <c r="V5" s="34">
+        <f>((B5-B$4)/B$4)^2</f>
+        <v>2.6455218464218326E-2</v>
+      </c>
       <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23">
@@ -5895,24 +6160,72 @@
         <f t="shared" ref="D6:D16" si="0">$B$4</f>
         <v>1.66</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="73">
+        <f t="shared" ref="E6:E16" si="1">C6-$B6</f>
+        <v>-0.13329267110320786</v>
+      </c>
+      <c r="F6" s="73">
+        <f t="shared" ref="F6:F16" si="2">D6-$B6</f>
+        <v>-0.29000000000000004</v>
+      </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
+      <c r="H6" s="75">
+        <f t="shared" ref="H6:H16" si="3">E6^2</f>
+        <v>1.7766936169827944E-2</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" ref="I6:I16" si="4">F6^2</f>
+        <v>8.4100000000000022E-2</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" ref="J6:J16" si="5">ABS(E6)</f>
+        <v>0.13329267110320786</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" ref="K6:K16" si="6">ABS(F6)</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="L6" s="32">
+        <f t="shared" ref="L6:L16" si="7">E6/B6*100</f>
+        <v>-6.8355215950363011</v>
+      </c>
+      <c r="M6" s="32">
+        <f t="shared" ref="M6:M16" si="8">F6/B6*100</f>
+        <v>-14.871794871794874</v>
+      </c>
+      <c r="N6" s="32">
+        <f t="shared" ref="N6:N16" si="9">ABS(L6)</f>
+        <v>6.8355215950363011</v>
+      </c>
+      <c r="O6" s="32">
+        <f t="shared" ref="O6:O16" si="10">ABS(M6)</f>
+        <v>14.871794871794874</v>
+      </c>
       <c r="P6" s="18"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
+      <c r="Q6" s="32">
+        <f t="shared" ref="Q6:Q16" si="11">B6^2</f>
+        <v>3.8024999999999998</v>
+      </c>
+      <c r="R6" s="32">
+        <f t="shared" ref="R6:R16" si="12">C6^2</f>
+        <v>3.3004255188673173</v>
+      </c>
+      <c r="S6" s="32">
+        <f t="shared" ref="S6:S16" si="13">D6^2</f>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T6" s="33">
+        <f t="shared" ref="T6:T16" si="14">(E6/$B$4)^2</f>
+        <v>6.4475744555915022E-3</v>
+      </c>
+      <c r="U6" s="34">
+        <f t="shared" ref="U6:U16" si="15">(F6/$B$4)^2</f>
+        <v>3.0519669037596179E-2</v>
+      </c>
+      <c r="V6" s="34">
+        <f t="shared" ref="V6:V16" si="16">((B6-B$4)/B$4)^2</f>
+        <v>3.0519669037596179E-2</v>
+      </c>
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23">
@@ -5932,24 +6245,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="73">
+        <f t="shared" si="1"/>
+        <v>-0.23238406977522819</v>
+      </c>
+      <c r="F7" s="73">
+        <f t="shared" si="2"/>
+        <v>-0.46000000000000019</v>
+      </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="H7" s="75">
+        <f t="shared" si="3"/>
+        <v>5.4002355885298121E-2</v>
+      </c>
+      <c r="I7" s="32">
+        <f t="shared" si="4"/>
+        <v>0.21160000000000018</v>
+      </c>
+      <c r="J7" s="32">
+        <f t="shared" si="5"/>
+        <v>0.23238406977522819</v>
+      </c>
+      <c r="K7" s="32">
+        <f t="shared" si="6"/>
+        <v>0.46000000000000019</v>
+      </c>
+      <c r="L7" s="32">
+        <f t="shared" si="7"/>
+        <v>-10.961512725246612</v>
+      </c>
+      <c r="M7" s="32">
+        <f t="shared" si="8"/>
+        <v>-21.698113207547181</v>
+      </c>
+      <c r="N7" s="32">
+        <f t="shared" si="9"/>
+        <v>10.961512725246612</v>
+      </c>
+      <c r="O7" s="32">
+        <f t="shared" si="10"/>
+        <v>21.698113207547181</v>
+      </c>
       <c r="P7" s="18"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
+      <c r="Q7" s="35">
+        <f t="shared" si="11"/>
+        <v>4.4944000000000006</v>
+      </c>
+      <c r="R7" s="35">
+        <f t="shared" si="12"/>
+        <v>3.5630939000383308</v>
+      </c>
+      <c r="S7" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T7" s="33">
+        <f t="shared" si="14"/>
+        <v>1.9597313066228094E-2</v>
+      </c>
+      <c r="U7" s="34">
+        <f t="shared" si="15"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
+      <c r="V7" s="34">
+        <f t="shared" si="16"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23">
@@ -5969,24 +6330,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="73">
+        <f t="shared" si="1"/>
+        <v>-0.52601732052468386</v>
+      </c>
+      <c r="F8" s="73">
+        <f t="shared" si="2"/>
+        <v>-0.82000000000000006</v>
+      </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="H8" s="75">
+        <f t="shared" si="3"/>
+        <v>0.27669422149196798</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" si="4"/>
+        <v>0.67240000000000011</v>
+      </c>
+      <c r="J8" s="32">
+        <f t="shared" si="5"/>
+        <v>0.52601732052468386</v>
+      </c>
+      <c r="K8" s="32">
+        <f t="shared" si="6"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="L8" s="32">
+        <f t="shared" si="7"/>
+        <v>-21.210375827608221</v>
+      </c>
+      <c r="M8" s="32">
+        <f t="shared" si="8"/>
+        <v>-33.064516129032263</v>
+      </c>
+      <c r="N8" s="32">
+        <f t="shared" si="9"/>
+        <v>21.210375827608221</v>
+      </c>
+      <c r="O8" s="32">
+        <f t="shared" si="10"/>
+        <v>33.064516129032263</v>
+      </c>
       <c r="P8" s="18"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
+      <c r="Q8" s="35">
+        <f t="shared" si="11"/>
+        <v>6.1504000000000003</v>
+      </c>
+      <c r="R8" s="35">
+        <f t="shared" si="12"/>
+        <v>3.8180483116895361</v>
+      </c>
+      <c r="S8" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T8" s="33">
+        <f t="shared" si="14"/>
+        <v>0.10041160599940775</v>
+      </c>
+      <c r="U8" s="34">
+        <f t="shared" si="15"/>
+        <v>0.24401219335172017</v>
+      </c>
+      <c r="V8" s="34">
+        <f t="shared" si="16"/>
+        <v>0.24401219335172017</v>
+      </c>
       <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:23">
@@ -6006,24 +6415,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="E9" s="73">
+        <f t="shared" si="1"/>
+        <v>-0.60390150772347129</v>
+      </c>
+      <c r="F9" s="73">
+        <f t="shared" si="2"/>
+        <v>-0.96000000000000019</v>
+      </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="H9" s="75">
+        <f t="shared" si="3"/>
+        <v>0.36469703103068185</v>
+      </c>
+      <c r="I9" s="32">
+        <f t="shared" si="4"/>
+        <v>0.92160000000000031</v>
+      </c>
+      <c r="J9" s="32">
+        <f t="shared" si="5"/>
+        <v>0.60390150772347129</v>
+      </c>
+      <c r="K9" s="32">
+        <f t="shared" si="6"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="L9" s="32">
+        <f t="shared" si="7"/>
+        <v>-23.049675867308064</v>
+      </c>
+      <c r="M9" s="32">
+        <f t="shared" si="8"/>
+        <v>-36.641221374045806</v>
+      </c>
+      <c r="N9" s="32">
+        <f t="shared" si="9"/>
+        <v>23.049675867308064</v>
+      </c>
+      <c r="O9" s="32">
+        <f t="shared" si="10"/>
+        <v>36.641221374045806</v>
+      </c>
       <c r="P9" s="18"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
+      <c r="Q9" s="35">
+        <f t="shared" si="11"/>
+        <v>6.8644000000000007</v>
+      </c>
+      <c r="R9" s="35">
+        <f t="shared" si="12"/>
+        <v>4.0646531305596927</v>
+      </c>
+      <c r="S9" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T9" s="33">
+        <f t="shared" si="14"/>
+        <v>0.13234759436445126</v>
+      </c>
+      <c r="U9" s="34">
+        <f t="shared" si="15"/>
+        <v>0.33444621860937734</v>
+      </c>
+      <c r="V9" s="34">
+        <f t="shared" si="16"/>
+        <v>0.33444621860937734</v>
+      </c>
       <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:23">
@@ -6043,24 +6500,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="73">
+        <f t="shared" si="1"/>
+        <v>-0.27576434953015116</v>
+      </c>
+      <c r="F10" s="73">
+        <f t="shared" si="2"/>
+        <v>-0.69000000000000017</v>
+      </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="H10" s="75">
+        <f t="shared" si="3"/>
+        <v>7.6045976471787388E-2</v>
+      </c>
+      <c r="I10" s="32">
+        <f t="shared" si="4"/>
+        <v>0.47610000000000025</v>
+      </c>
+      <c r="J10" s="32">
+        <f t="shared" si="5"/>
+        <v>0.27576434953015116</v>
+      </c>
+      <c r="K10" s="32">
+        <f t="shared" si="6"/>
+        <v>0.69000000000000017</v>
+      </c>
+      <c r="L10" s="32">
+        <f t="shared" si="7"/>
+        <v>-11.734653171495795</v>
+      </c>
+      <c r="M10" s="32">
+        <f t="shared" si="8"/>
+        <v>-29.361702127659576</v>
+      </c>
+      <c r="N10" s="32">
+        <f t="shared" si="9"/>
+        <v>11.734653171495795</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" si="10"/>
+        <v>29.361702127659576</v>
+      </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
+      <c r="Q10" s="35">
+        <f t="shared" si="11"/>
+        <v>5.5225000000000009</v>
+      </c>
+      <c r="R10" s="35">
+        <f t="shared" si="12"/>
+        <v>4.3024535336800769</v>
+      </c>
+      <c r="S10" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T10" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7596885060163806E-2</v>
+      </c>
+      <c r="U10" s="34">
+        <f t="shared" si="15"/>
+        <v>0.17277543910582097</v>
+      </c>
+      <c r="V10" s="34">
+        <f t="shared" si="16"/>
+        <v>0.17277543910582097</v>
+      </c>
       <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:23">
@@ -6080,24 +6585,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="73">
+        <f t="shared" si="1"/>
+        <v>-3.1351004354876366E-2</v>
+      </c>
+      <c r="F11" s="73">
+        <f t="shared" si="2"/>
+        <v>-0.50000000000000022</v>
+      </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="H11" s="75">
+        <f t="shared" si="3"/>
+        <v>9.8288547405947697E-4</v>
+      </c>
+      <c r="I11" s="32">
+        <f t="shared" si="4"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="J11" s="32">
+        <f t="shared" si="5"/>
+        <v>3.1351004354876366E-2</v>
+      </c>
+      <c r="K11" s="32">
+        <f t="shared" si="6"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="L11" s="32">
+        <f t="shared" si="7"/>
+        <v>-1.4514353867998315</v>
+      </c>
+      <c r="M11" s="32">
+        <f t="shared" si="8"/>
+        <v>-23.148148148148156</v>
+      </c>
+      <c r="N11" s="32">
+        <f t="shared" si="9"/>
+        <v>1.4514353867998315</v>
+      </c>
+      <c r="O11" s="32">
+        <f t="shared" si="10"/>
+        <v>23.148148148148156</v>
+      </c>
       <c r="P11" s="18"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
+      <c r="Q11" s="35">
+        <f t="shared" si="11"/>
+        <v>4.6656000000000004</v>
+      </c>
+      <c r="R11" s="35">
+        <f t="shared" si="12"/>
+        <v>4.5311465466609944</v>
+      </c>
+      <c r="S11" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T11" s="33">
+        <f t="shared" si="14"/>
+        <v>3.5668655612551781E-4</v>
+      </c>
+      <c r="U11" s="34">
+        <f t="shared" si="15"/>
+        <v>9.072434315575563E-2</v>
+      </c>
+      <c r="V11" s="34">
+        <f t="shared" si="16"/>
+        <v>9.072434315575563E-2</v>
+      </c>
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23">
@@ -6117,24 +6670,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="73">
+        <f t="shared" si="1"/>
+        <v>5.9577046227131447E-2</v>
+      </c>
+      <c r="F12" s="73">
+        <f t="shared" si="2"/>
+        <v>-0.46000000000000019</v>
+      </c>
       <c r="G12" s="18"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="H12" s="75">
+        <f t="shared" si="3"/>
+        <v>3.5494244371497576E-3</v>
+      </c>
+      <c r="I12" s="32">
+        <f t="shared" si="4"/>
+        <v>0.21160000000000018</v>
+      </c>
+      <c r="J12" s="32">
+        <f t="shared" si="5"/>
+        <v>5.9577046227131447E-2</v>
+      </c>
+      <c r="K12" s="32">
+        <f t="shared" si="6"/>
+        <v>0.46000000000000019</v>
+      </c>
+      <c r="L12" s="32">
+        <f t="shared" si="7"/>
+        <v>2.8102380295816718</v>
+      </c>
+      <c r="M12" s="32">
+        <f t="shared" si="8"/>
+        <v>-21.698113207547181</v>
+      </c>
+      <c r="N12" s="32">
+        <f t="shared" si="9"/>
+        <v>2.8102380295816718</v>
+      </c>
+      <c r="O12" s="32">
+        <f t="shared" si="10"/>
+        <v>21.698113207547181</v>
+      </c>
       <c r="P12" s="18"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
+      <c r="Q12" s="35">
+        <f t="shared" si="11"/>
+        <v>4.4944000000000006</v>
+      </c>
+      <c r="R12" s="35">
+        <f t="shared" si="12"/>
+        <v>4.7505561004401873</v>
+      </c>
+      <c r="S12" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T12" s="33">
+        <f t="shared" si="14"/>
+        <v>1.2880768025655964E-3</v>
+      </c>
+      <c r="U12" s="34">
+        <f t="shared" si="15"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
+      <c r="V12" s="34">
+        <f t="shared" si="16"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
       <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:23">
@@ -6154,24 +6755,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="73">
+        <f t="shared" si="1"/>
+        <v>0.49724304301025279</v>
+      </c>
+      <c r="F13" s="73">
+        <f t="shared" si="2"/>
+        <v>-7.0000000000000062E-2</v>
+      </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="H13" s="75">
+        <f t="shared" si="3"/>
+        <v>0.24725064382209611</v>
+      </c>
+      <c r="I13" s="32">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000085E-3</v>
+      </c>
+      <c r="J13" s="32">
+        <f t="shared" si="5"/>
+        <v>0.49724304301025279</v>
+      </c>
+      <c r="K13" s="32">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="L13" s="32">
+        <f t="shared" si="7"/>
+        <v>28.742372428338314</v>
+      </c>
+      <c r="M13" s="32">
+        <f t="shared" si="8"/>
+        <v>-4.046242774566478</v>
+      </c>
+      <c r="N13" s="32">
+        <f t="shared" si="9"/>
+        <v>28.742372428338314</v>
+      </c>
+      <c r="O13" s="32">
+        <f t="shared" si="10"/>
+        <v>4.046242774566478</v>
+      </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
+      <c r="Q13" s="35">
+        <f t="shared" si="11"/>
+        <v>2.9929000000000001</v>
+      </c>
+      <c r="R13" s="35">
+        <f t="shared" si="12"/>
+        <v>4.9606115726375704</v>
+      </c>
+      <c r="S13" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T13" s="33">
+        <f t="shared" si="14"/>
+        <v>8.9726609022389353E-2</v>
+      </c>
+      <c r="U13" s="34">
+        <f t="shared" si="15"/>
+        <v>1.7781971258528121E-3</v>
+      </c>
+      <c r="V13" s="34">
+        <f t="shared" si="16"/>
+        <v>1.7781971258528121E-3</v>
+      </c>
       <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:23">
@@ -6191,24 +6840,72 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="E14" s="73">
+        <f t="shared" si="1"/>
+        <v>0.8218559277243449</v>
+      </c>
+      <c r="F14" s="73">
+        <f t="shared" si="2"/>
+        <v>0.20999999999999996</v>
+      </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="H14" s="75">
+        <f t="shared" si="3"/>
+        <v>0.67544716593564358</v>
+      </c>
+      <c r="I14" s="32">
+        <f t="shared" si="4"/>
+        <v>4.4099999999999986E-2</v>
+      </c>
+      <c r="J14" s="32">
+        <f t="shared" si="5"/>
+        <v>0.8218559277243449</v>
+      </c>
+      <c r="K14" s="32">
+        <f t="shared" si="6"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="L14" s="32">
+        <f t="shared" si="7"/>
+        <v>56.679719153403099</v>
+      </c>
+      <c r="M14" s="32">
+        <f t="shared" si="8"/>
+        <v>14.482758620689653</v>
+      </c>
+      <c r="N14" s="32">
+        <f t="shared" si="9"/>
+        <v>56.679719153403099</v>
+      </c>
+      <c r="O14" s="32">
+        <f t="shared" si="10"/>
+        <v>14.482758620689653</v>
+      </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
+      <c r="Q14" s="35">
+        <f t="shared" si="11"/>
+        <v>2.1025</v>
+      </c>
+      <c r="R14" s="35">
+        <f t="shared" si="12"/>
+        <v>5.1613293563362435</v>
+      </c>
+      <c r="S14" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T14" s="33">
+        <f t="shared" si="14"/>
+        <v>0.24511800186371163</v>
+      </c>
+      <c r="U14" s="34">
+        <f t="shared" si="15"/>
+        <v>1.6003774132675279E-2</v>
+      </c>
+      <c r="V14" s="34">
+        <f t="shared" si="16"/>
+        <v>1.6003774132675279E-2</v>
+      </c>
       <c r="W14" s="18"/>
     </row>
     <row r="15" spans="1:23">
@@ -6228,27 +6925,75 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0736112589213131</v>
+      </c>
+      <c r="F15" s="73">
+        <f t="shared" si="2"/>
+        <v>0.41999999999999993</v>
+      </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
+      <c r="H15" s="75">
+        <f t="shared" si="3"/>
+        <v>1.1526411352826069</v>
+      </c>
+      <c r="I15" s="32">
+        <f t="shared" si="4"/>
+        <v>0.17639999999999995</v>
+      </c>
+      <c r="J15" s="32">
+        <f t="shared" si="5"/>
+        <v>1.0736112589213131</v>
+      </c>
+      <c r="K15" s="32">
+        <f t="shared" si="6"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="L15" s="32">
+        <f t="shared" si="7"/>
+        <v>86.581553138815579</v>
+      </c>
+      <c r="M15" s="32">
+        <f t="shared" si="8"/>
+        <v>33.870967741935473</v>
+      </c>
+      <c r="N15" s="32">
+        <f t="shared" si="9"/>
+        <v>86.581553138815579</v>
+      </c>
+      <c r="O15" s="32">
+        <f t="shared" si="10"/>
+        <v>33.870967741935473</v>
+      </c>
       <c r="P15" s="18"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
+      <c r="Q15" s="35">
+        <f t="shared" si="11"/>
+        <v>1.5376000000000001</v>
+      </c>
+      <c r="R15" s="35">
+        <f t="shared" si="12"/>
+        <v>5.3527970574074635</v>
+      </c>
+      <c r="S15" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T15" s="33">
+        <f t="shared" si="14"/>
+        <v>0.41829043957127554</v>
+      </c>
+      <c r="U15" s="34">
+        <f t="shared" si="15"/>
+        <v>6.4015096530701115E-2</v>
+      </c>
+      <c r="V15" s="34">
+        <f t="shared" si="16"/>
+        <v>6.4015096530701115E-2</v>
+      </c>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1">
+    <row r="16" spans="1:23" ht="15" thickBot="1">
       <c r="A16" s="36" t="str">
         <f>'Data '!A146</f>
         <v>2014 - Dec</v>
@@ -6265,27 +7010,75 @@
         <f t="shared" si="0"/>
         <v>1.66</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="74">
+        <f t="shared" si="1"/>
+        <v>1.7326920691971339</v>
+      </c>
+      <c r="F16" s="74">
+        <f t="shared" si="2"/>
+        <v>1.04</v>
+      </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="H16" s="76">
+        <f t="shared" si="3"/>
+        <v>3.0022218066586457</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="shared" si="4"/>
+        <v>1.0816000000000001</v>
+      </c>
+      <c r="J16" s="38">
+        <f t="shared" si="5"/>
+        <v>1.7326920691971339</v>
+      </c>
+      <c r="K16" s="38">
+        <f t="shared" si="6"/>
+        <v>1.04</v>
+      </c>
+      <c r="L16" s="38">
+        <f t="shared" si="7"/>
+        <v>279.46646277373128</v>
+      </c>
+      <c r="M16" s="38">
+        <f t="shared" si="8"/>
+        <v>167.74193548387098</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="9"/>
+        <v>279.46646277373128</v>
+      </c>
+      <c r="O16" s="38">
+        <f t="shared" si="10"/>
+        <v>167.74193548387098</v>
+      </c>
       <c r="P16" s="18"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="Q16" s="38">
+        <f t="shared" si="11"/>
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="R16" s="38">
+        <f t="shared" si="12"/>
+        <v>5.5351599724630924</v>
+      </c>
+      <c r="S16" s="38">
+        <f t="shared" si="13"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="14"/>
+        <v>1.0894984056679655</v>
+      </c>
+      <c r="U16" s="40">
+        <f t="shared" si="15"/>
+        <v>0.39250979822906085</v>
+      </c>
+      <c r="V16" s="40">
+        <f t="shared" si="16"/>
+        <v>0.39250979822906085</v>
+      </c>
       <c r="W16" s="18"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickTop="1">
+    <row r="17" spans="1:23" ht="15" thickTop="1">
       <c r="A17" s="15" t="s">
         <v>227</v>
       </c>
@@ -6294,78 +7087,78 @@
         <v>1.8975</v>
       </c>
       <c r="C17" s="41">
-        <f t="shared" ref="C17:F17" si="1">AVERAGE(C5:C16)</f>
+        <f t="shared" ref="C17:D17" si="17">AVERAGE(C5:C16)</f>
         <v>2.0802678727441446</v>
       </c>
       <c r="D17" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>1.66</v>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="41">
         <f>IFERROR(AVERAGE(E5:E16),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="41" t="str">
+        <v>0.18276787274414463</v>
+      </c>
+      <c r="F17" s="41">
         <f>IFERROR(AVERAGE(F5:F16),"")</f>
-        <v/>
+        <v>-0.23750000000000013</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="41" t="str">
+      <c r="H17" s="41">
         <f>IFERROR(AVERAGE(H5:H16),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="41" t="str">
-        <f t="shared" ref="I17:Q17" si="2">IFERROR(AVERAGE(I5:I16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>0.49225341486206248</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" ref="I17:Q17" si="18">IFERROR(AVERAGE(I5:I16),"")</f>
+        <v>0.35060833333333341</v>
+      </c>
+      <c r="J17" s="41">
+        <f t="shared" si="18"/>
+        <v>0.51472868476921807</v>
+      </c>
+      <c r="K17" s="41">
+        <f t="shared" si="18"/>
+        <v>0.51583333333333348</v>
+      </c>
+      <c r="L17" s="41">
+        <f t="shared" si="18"/>
+        <v>30.770135795351546</v>
+      </c>
+      <c r="M17" s="41">
+        <f t="shared" si="18"/>
+        <v>1.4646810583712597</v>
+      </c>
+      <c r="N17" s="41">
+        <f t="shared" si="18"/>
+        <v>44.943255125293454</v>
+      </c>
+      <c r="O17" s="41">
+        <f t="shared" si="18"/>
+        <v>34.551262582711423</v>
       </c>
       <c r="P17" s="20"/>
-      <c r="Q17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R17" s="41" t="str">
-        <f t="shared" ref="R17" si="3">IFERROR(AVERAGE(R5:R16),"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="41" t="str">
-        <f t="shared" ref="S17" si="4">IFERROR(AVERAGE(S5:S16),"")</f>
-        <v/>
-      </c>
-      <c r="T17" s="41" t="str">
-        <f t="shared" ref="T17" si="5">IFERROR(AVERAGE(T5:T16),"")</f>
-        <v/>
-      </c>
-      <c r="U17" s="41" t="str">
-        <f t="shared" ref="U17" si="6">IFERROR(AVERAGE(U5:U16),"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="41" t="str">
-        <f t="shared" ref="V17" si="7">IFERROR(AVERAGE(V5:V16),"")</f>
-        <v/>
+      <c r="Q17" s="41">
+        <f t="shared" si="18"/>
+        <v>3.8947083333333326</v>
+      </c>
+      <c r="R17" s="41">
+        <f t="shared" ref="R17" si="19">IFERROR(AVERAGE(R5:R16),"")</f>
+        <v>4.3642640127324697</v>
+      </c>
+      <c r="S17" s="41">
+        <f t="shared" ref="S17" si="20">IFERROR(AVERAGE(S5:S16),"")</f>
+        <v>2.7556000000000007</v>
+      </c>
+      <c r="T17" s="41">
+        <f t="shared" ref="T17" si="21">IFERROR(AVERAGE(T5:T16),"")</f>
+        <v>0.17863747091815299</v>
+      </c>
+      <c r="U17" s="41">
+        <f t="shared" ref="U17" si="22">IFERROR(AVERAGE(U5:U16),"")</f>
+        <v>0.12723484298640347</v>
+      </c>
+      <c r="V17" s="41">
+        <f t="shared" ref="V17" si="23">IFERROR(AVERAGE(V5:V16),"")</f>
+        <v>0.12723484298640347</v>
       </c>
       <c r="W17" s="18"/>
     </row>
@@ -6378,11 +7171,11 @@
         <v>0.54240398535900636</v>
       </c>
       <c r="C18" s="41">
-        <f t="shared" ref="C18:D18" si="8">STDEVP(C5:C16)</f>
-        <v>0.1917018267023595</v>
+        <f t="shared" ref="C18:D18" si="24">STDEVP(C5:C16)</f>
+        <v>0.191701826702358</v>
       </c>
       <c r="D18" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E18" s="24"/>
@@ -6405,7 +7198,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+    <row r="19" spans="1:23" ht="15" thickBot="1">
       <c r="A19" s="43" t="s">
         <v>228</v>
       </c>
@@ -6438,7 +7231,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:23" ht="16" thickTop="1" thickBot="1">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -6462,7 +7255,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:23" ht="16" thickTop="1" thickBot="1">
       <c r="A21" s="28" t="s">
         <v>176</v>
       </c>
@@ -6495,13 +7288,19 @@
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickTop="1">
+    <row r="22" spans="1:23" ht="15" thickTop="1">
       <c r="A22" s="45" t="s">
         <v>213</v>
       </c>
       <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="46">
+        <f>E17</f>
+        <v>0.18276787274414463</v>
+      </c>
+      <c r="D22" s="46">
+        <f>F17</f>
+        <v>-0.23750000000000013</v>
+      </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -6531,8 +7330,14 @@
         <v>214</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="46">
+        <f>H17</f>
+        <v>0.49225341486206248</v>
+      </c>
+      <c r="D23" s="46">
+        <f>I17</f>
+        <v>0.35060833333333341</v>
+      </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -6562,8 +7367,14 @@
         <v>215</v>
       </c>
       <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="53">
+        <f>SQRT(C23)</f>
+        <v>0.70160773574844693</v>
+      </c>
+      <c r="D24" s="53">
+        <f>SQRT(D23)</f>
+        <v>0.59212189060474141</v>
+      </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -6593,8 +7404,14 @@
         <v>216</v>
       </c>
       <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42">
+        <f>SQRT(C23-C22^2)</f>
+        <v>0.67738417427235675</v>
+      </c>
+      <c r="D25" s="42">
+        <f>SQRT(D23-D22^2)</f>
+        <v>0.54240398535900658</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -6624,8 +7441,14 @@
         <v>217</v>
       </c>
       <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="53">
+        <f>J17</f>
+        <v>0.51472868476921807</v>
+      </c>
+      <c r="D26" s="53">
+        <f>K17</f>
+        <v>0.51583333333333348</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -6655,8 +7478,14 @@
         <v>175</v>
       </c>
       <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="46">
+        <f>L17</f>
+        <v>30.770135795351546</v>
+      </c>
+      <c r="D27" s="46">
+        <f>M17</f>
+        <v>1.4646810583712597</v>
+      </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -6681,13 +7510,19 @@
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15" thickBot="1">
       <c r="A28" s="54" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="53">
+        <f>N17</f>
+        <v>44.943255125293454</v>
+      </c>
+      <c r="D28" s="53">
+        <f>O17</f>
+        <v>34.551262582711423</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -6712,13 +7547,19 @@
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickTop="1">
+    <row r="29" spans="1:23" ht="15" thickTop="1">
       <c r="A29" s="54" t="s">
         <v>174</v>
       </c>
       <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="53">
+        <f>C17/(SQRT(Q17)+SQRT(R17))</f>
+        <v>0.51205539562965063</v>
+      </c>
+      <c r="D29" s="53">
+        <f>D17/(SQRT(Q17)+SQRT(S17))</f>
+        <v>0.45685958328420961</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -6741,8 +7582,14 @@
         <v>173</v>
       </c>
       <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="C30" s="46">
+        <f>SQRT(T17/V17)</f>
+        <v>1.1849042348896881</v>
+      </c>
+      <c r="D30" s="46">
+        <f>SQRT(U17/V17)</f>
+        <v>1</v>
+      </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -6768,8 +7615,14 @@
       <c r="B31" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="53">
+        <f>C22^2/C23</f>
+        <v>6.7859550180632527E-2</v>
+      </c>
+      <c r="D31" s="53">
+        <f>D22^2/D23</f>
+        <v>0.16088108763339923</v>
+      </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -6795,8 +7648,14 @@
       <c r="B32" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="53">
+        <f>(B18-C18)^2/C23</f>
+        <v>0.24985505508559516</v>
+      </c>
+      <c r="D32" s="53">
+        <f>(B18-D18)^2/D23</f>
+        <v>0.8391189123666003</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -6817,13 +7676,19 @@
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+    <row r="33" spans="1:23" ht="15" thickBot="1">
       <c r="A33" s="55"/>
       <c r="B33" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="51">
+        <f>2*(1-C19)*B18*C18/C23</f>
+        <v>0.68228539473377181</v>
+      </c>
+      <c r="D33" s="51">
+        <f>2*(1-D19)*B18*D18/C23</f>
+        <v>0</v>
+      </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -6844,7 +7709,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickTop="1">
+    <row r="34" spans="1:23" ht="15" thickTop="1">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="20"/>
@@ -7104,7 +7969,12 @@
     <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>